--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K417"/>
+  <dimension ref="A1:K426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14866,6 +14866,347 @@
         <v>376.67</v>
       </c>
       <c r="K417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>386.7690909090909</v>
+      </c>
+      <c r="C418" t="n">
+        <v>380.1084615384616</v>
+      </c>
+      <c r="D418" t="n">
+        <v>382.3</v>
+      </c>
+      <c r="E418" t="n">
+        <v>364.7984615384616</v>
+      </c>
+      <c r="F418" t="n">
+        <v>356.6184615384616</v>
+      </c>
+      <c r="G418" t="n">
+        <v>354.515</v>
+      </c>
+      <c r="H418" t="n">
+        <v>349.635</v>
+      </c>
+      <c r="I418" t="n">
+        <v>341.7278947368421</v>
+      </c>
+      <c r="J418" t="n">
+        <v>340.23</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>368.509090909091</v>
+      </c>
+      <c r="C419" t="n">
+        <v>364.7861538461539</v>
+      </c>
+      <c r="D419" t="n">
+        <v>357.57</v>
+      </c>
+      <c r="E419" t="n">
+        <v>344.7561538461539</v>
+      </c>
+      <c r="F419" t="n">
+        <v>340.0261538461539</v>
+      </c>
+      <c r="G419" t="n">
+        <v>346.385</v>
+      </c>
+      <c r="H419" t="n">
+        <v>345.215</v>
+      </c>
+      <c r="I419" t="n">
+        <v>342.4773684210526</v>
+      </c>
+      <c r="J419" t="n">
+        <v>347.25</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="n">
+        <v>374.79</v>
+      </c>
+      <c r="E420" t="n">
+        <v>380.7446153846154</v>
+      </c>
+      <c r="F420" t="n">
+        <v>368.9846153846154</v>
+      </c>
+      <c r="G420" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="H420" t="n">
+        <v>358.69</v>
+      </c>
+      <c r="I420" t="n">
+        <v>362.4431578947368</v>
+      </c>
+      <c r="J420" t="n">
+        <v>366.78</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>368.3218181818182</v>
+      </c>
+      <c r="C421" t="n">
+        <v>358.8376923076923</v>
+      </c>
+      <c r="D421" t="n">
+        <v>361.23</v>
+      </c>
+      <c r="E421" t="n">
+        <v>355.6576923076923</v>
+      </c>
+      <c r="F421" t="n">
+        <v>342.4876923076923</v>
+      </c>
+      <c r="G421" t="n">
+        <v>350.1</v>
+      </c>
+      <c r="H421" t="n">
+        <v>347.46</v>
+      </c>
+      <c r="I421" t="n">
+        <v>346.92</v>
+      </c>
+      <c r="J421" t="n">
+        <v>351.96</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>372.0618181818182</v>
+      </c>
+      <c r="C422" t="n">
+        <v>360.9776923076923</v>
+      </c>
+      <c r="D422" t="n">
+        <v>365.74</v>
+      </c>
+      <c r="E422" t="n">
+        <v>355.4476923076923</v>
+      </c>
+      <c r="F422" t="n">
+        <v>346.6576923076923</v>
+      </c>
+      <c r="G422" t="n">
+        <v>350.81</v>
+      </c>
+      <c r="H422" t="n">
+        <v>343.42</v>
+      </c>
+      <c r="I422" t="n">
+        <v>345.08</v>
+      </c>
+      <c r="J422" t="n">
+        <v>349.77</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="C423" t="n">
+        <v>359.6892307692308</v>
+      </c>
+      <c r="D423" t="n">
+        <v>362.71</v>
+      </c>
+      <c r="E423" t="n">
+        <v>355.5092307692308</v>
+      </c>
+      <c r="F423" t="n">
+        <v>339.1592307692308</v>
+      </c>
+      <c r="G423" t="n">
+        <v>344.125</v>
+      </c>
+      <c r="H423" t="n">
+        <v>336.765</v>
+      </c>
+      <c r="I423" t="n">
+        <v>347.708947368421</v>
+      </c>
+      <c r="J423" t="n">
+        <v>355.74</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="n">
+        <v>376.4523076923077</v>
+      </c>
+      <c r="F424" t="n">
+        <v>372.0323076923077</v>
+      </c>
+      <c r="G424" t="n">
+        <v>366.785</v>
+      </c>
+      <c r="H424" t="n">
+        <v>364.805</v>
+      </c>
+      <c r="I424" t="n">
+        <v>363.0152631578948</v>
+      </c>
+      <c r="J424" t="n">
+        <v>369.32</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>394.8527272727272</v>
+      </c>
+      <c r="C425" t="n">
+        <v>385.0107692307692</v>
+      </c>
+      <c r="D425" t="n">
+        <v>387.22</v>
+      </c>
+      <c r="E425" t="n">
+        <v>381.2107692307693</v>
+      </c>
+      <c r="F425" t="n">
+        <v>372.3207692307692</v>
+      </c>
+      <c r="G425" t="n">
+        <v>371.295</v>
+      </c>
+      <c r="H425" t="n">
+        <v>369.775</v>
+      </c>
+      <c r="I425" t="n">
+        <v>363.3542105263158</v>
+      </c>
+      <c r="J425" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>381.6363636363636</v>
+      </c>
+      <c r="C426" t="n">
+        <v>376.2476923076923</v>
+      </c>
+      <c r="D426" t="n">
+        <v>372.33</v>
+      </c>
+      <c r="E426" t="n">
+        <v>361.6676923076923</v>
+      </c>
+      <c r="F426" t="n">
+        <v>349.6276923076923</v>
+      </c>
+      <c r="G426" t="n">
+        <v>346.53</v>
+      </c>
+      <c r="H426" t="n">
+        <v>343.4</v>
+      </c>
+      <c r="I426" t="n">
+        <v>343.8536842105263</v>
+      </c>
+      <c r="J426" t="n">
+        <v>344.3200000000001</v>
+      </c>
+      <c r="K426" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14882,7 +15223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B483"/>
+  <dimension ref="A1:B492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19720,6 +20061,96 @@
       </c>
       <c r="B483" t="n">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -19888,28 +20319,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2010904050760377</v>
+        <v>0.2100567271347243</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006876390128085386</v>
+        <v>0.007796575803226125</v>
       </c>
       <c r="M2" t="n">
-        <v>12.85480871928871</v>
+        <v>12.76278173836952</v>
       </c>
       <c r="N2" t="n">
-        <v>326.0304872701142</v>
+        <v>320.6799118847625</v>
       </c>
       <c r="O2" t="n">
-        <v>18.05631433239115</v>
+        <v>17.90753785099343</v>
       </c>
       <c r="P2" t="n">
-        <v>369.9587603294073</v>
+        <v>369.8725206797292</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19965,28 +20396,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3765595763703572</v>
+        <v>0.3719032511866395</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03212191485372529</v>
+        <v>0.0323634776639542</v>
       </c>
       <c r="M3" t="n">
-        <v>11.37611110106687</v>
+        <v>11.33459026781849</v>
       </c>
       <c r="N3" t="n">
-        <v>223.6914521265505</v>
+        <v>220.7923886156306</v>
       </c>
       <c r="O3" t="n">
-        <v>14.95631813403788</v>
+        <v>14.85908438012351</v>
       </c>
       <c r="P3" t="n">
-        <v>360.8916932373901</v>
+        <v>360.9391573063032</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20042,28 +20473,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3280667400006037</v>
+        <v>0.3083534342360434</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0150813658197072</v>
+        <v>0.0138693131549793</v>
       </c>
       <c r="M4" t="n">
-        <v>12.81868178576617</v>
+        <v>12.7084894921565</v>
       </c>
       <c r="N4" t="n">
-        <v>368.0231327838522</v>
+        <v>361.5977110822227</v>
       </c>
       <c r="O4" t="n">
-        <v>19.18392902363466</v>
+        <v>19.01572273362816</v>
       </c>
       <c r="P4" t="n">
-        <v>366.4337648420115</v>
+        <v>366.6349632944455</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20119,28 +20550,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1107202381440663</v>
+        <v>0.1329834961121915</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002923396714997417</v>
+        <v>0.004356783835565814</v>
       </c>
       <c r="M5" t="n">
-        <v>11.45419052283946</v>
+        <v>11.43037367346953</v>
       </c>
       <c r="N5" t="n">
-        <v>222.5451287006613</v>
+        <v>220.7798678556146</v>
       </c>
       <c r="O5" t="n">
-        <v>14.91794653096268</v>
+        <v>14.85866305747642</v>
       </c>
       <c r="P5" t="n">
-        <v>357.0620818235442</v>
+        <v>356.8381703354382</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20196,28 +20627,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5922956232764826</v>
+        <v>0.5897957053739677</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K6" t="n">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06823207845820645</v>
+        <v>0.06983595510848561</v>
       </c>
       <c r="M6" t="n">
-        <v>12.22054576843733</v>
+        <v>12.2103315139293</v>
       </c>
       <c r="N6" t="n">
-        <v>265.1808928382564</v>
+        <v>262.5272333914069</v>
       </c>
       <c r="O6" t="n">
-        <v>16.28437572761868</v>
+        <v>16.20269216492762</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6742515755961</v>
+        <v>339.6982529567201</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20273,28 +20704,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6136618638287759</v>
+        <v>0.6229495146768279</v>
       </c>
       <c r="J7" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07739952765090907</v>
+        <v>0.08267198450207958</v>
       </c>
       <c r="M7" t="n">
-        <v>11.23605059230521</v>
+        <v>11.15011794431112</v>
       </c>
       <c r="N7" t="n">
-        <v>247.6186787822672</v>
+        <v>243.4203217473712</v>
       </c>
       <c r="O7" t="n">
-        <v>15.73590412980033</v>
+        <v>15.60193326954616</v>
       </c>
       <c r="P7" t="n">
-        <v>337.3000565231069</v>
+        <v>337.2096520208096</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20350,28 +20781,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7762809256915112</v>
+        <v>0.7727415603384215</v>
       </c>
       <c r="J8" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K8" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07817860247821584</v>
+        <v>0.08048976493268722</v>
       </c>
       <c r="M8" t="n">
-        <v>13.00228644454952</v>
+        <v>12.90099878930547</v>
       </c>
       <c r="N8" t="n">
-        <v>378.9196351299372</v>
+        <v>371.9111136814271</v>
       </c>
       <c r="O8" t="n">
-        <v>19.46585819145761</v>
+        <v>19.28499711385581</v>
       </c>
       <c r="P8" t="n">
-        <v>332.0352904143585</v>
+        <v>332.0706171837049</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20427,28 +20858,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7957298091858045</v>
+        <v>0.8025525893991682</v>
       </c>
       <c r="J9" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K9" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07242523917953148</v>
+        <v>0.07670082920033083</v>
       </c>
       <c r="M9" t="n">
-        <v>12.80650881628176</v>
+        <v>12.68004634656668</v>
       </c>
       <c r="N9" t="n">
-        <v>431.433147310109</v>
+        <v>422.1659568722512</v>
       </c>
       <c r="O9" t="n">
-        <v>20.7709688582432</v>
+        <v>20.54667751419317</v>
       </c>
       <c r="P9" t="n">
-        <v>329.0751394252559</v>
+        <v>329.006139337081</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -20504,28 +20935,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5359143878152148</v>
+        <v>0.5928921718136599</v>
       </c>
       <c r="J10" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K10" t="n">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05185700804932381</v>
+        <v>0.0643679454815631</v>
       </c>
       <c r="M10" t="n">
-        <v>12.23299472956284</v>
+        <v>12.21479299398622</v>
       </c>
       <c r="N10" t="n">
-        <v>275.6516226513368</v>
+        <v>274.9150329975602</v>
       </c>
       <c r="O10" t="n">
-        <v>16.60275948905292</v>
+        <v>16.58056190234698</v>
       </c>
       <c r="P10" t="n">
-        <v>330.5827379715471</v>
+        <v>330.0058957172899</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -20562,7 +20993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K417"/>
+  <dimension ref="A1:K426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40647,6 +41078,499 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-41.05101423501105,172.10680086170765</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-41.05033538498052,172.10675599467956</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-41.049666934951006,172.10660669947148</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-41.04897532649767,172.10668971620655</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-41.048294669845234,172.10666276735688</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-41.0476211501597,172.10656413552022</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-41.04694435948797,172.10649825588976</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-41.04626400326807,172.10646808317506</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-41.04559117508811,172.10636230554255</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-41.050992767885965,172.1070162742218</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-41.050317371529715,172.106936749499</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-41.049637861587414,172.10689843237338</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-41.04895176391041,172.10692614720955</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-41.04827516321581,172.10685849809047</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-41.04761159226298,172.1066600398985</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-41.04693916320597,172.10655039525508</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-41.04626488437074,172.10645924229684</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-41.0455994279353,172.1062794976405</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-41.04965810603786,172.1066952928694</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-41.04899407312486,172.10650160576043</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-41.04830920780968,172.1065168902677</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-41.04763120761396,172.10646321766194</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-41.046955004738344,172.106391440944</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-41.04628835647228,172.10622372345412</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-41.045622387465215,172.106049121707</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-41.05099254771919,172.10701848347023</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-41.05031037822971,172.10700692252553</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-41.049642164444954,172.10685525639113</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-41.04896458028195,172.10679754618644</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-41.048278057127206,172.10682946062187</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-41.04761595974971,172.1066162164374</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-41.04694180249697,172.10652391270511</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-41.04627010724129,172.10640683649666</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-41.04560496506854,172.1062239384815</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-41.05099694463399,172.10697436284593</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-41.050312894122484,172.10698167729765</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-41.04964746657766,172.10680205319258</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-41.04896433339724,172.10680002347164</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-41.04828295957723,172.1067802693297</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-41.04761679444917,172.10660784102427</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-41.046937052944415,172.10657156949736</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-41.04626794409346,172.1064285413522</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>-41.04560239048128,172.10624977172213</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-41.050991887218615,172.10702511121545</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-41.050311379342276,172.10699687706665</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-41.04964390439366,172.10683779724928</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-41.048964405744414,172.10679929752726</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-41.048274144014634,172.1068687247234</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-41.04760893531803,172.10668669965946</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-41.046929229071544,172.10665007343178</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-41.04627103474537,172.10639752998068</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-41.04560940886302,172.10617934959592</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-41.04898902702977,172.10655224042011</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-41.04831279072568,172.10648093821635</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-41.04763557502556,172.10641939417613</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-41.04696219360604,172.10631930692296</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-41.04628902904127,172.10621697482958</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-41.0456253734633,172.1060191598489</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-41.05102373830108,172.10670549931947</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-41.050341148248,172.10669816291804</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-41.049672718968885,172.10654865957676</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-41.048994621140295,172.10649610672704</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-41.048313129845106,172.1064775353844</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-41.04764087702901,172.1063661925749</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-41.04696803636453,172.10626067958822</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-41.04628942750881,172.10621297656442</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-41.0456319332269,172.10595333812003</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-41.051008200829635,172.1068614123063</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-41.050330846149485,172.10680153956707</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-41.04965521399553,172.1067243128058</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-41.048971645864626,172.10672664863628</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-41.048286451237416,172.1067452338008</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-41.04761176273046,172.106658329427</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-41.046937029431724,172.10657180542205</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-41.04626650240512,172.10644300711613</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-41.04559598337814,172.10631405991538</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -20164,7 +20164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20255,35 +20255,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20342,27 +20347,28 @@
       <c r="P2" t="n">
         <v>369.8725206797292</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.11136353329573 -41.05055944870523, 172.10072317240378 -41.05161974048264)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1113635332957</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.05055944870523</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.1007231724038</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.05161974048264</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.1060433528498</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.05108959459393</v>
       </c>
     </row>
@@ -20419,27 +20425,28 @@
       <c r="P3" t="n">
         <v>360.9391573063032</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.11124004590667 -41.04988843188828, 172.1005997559444 -41.05094872068305)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1112400459067</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.04988843188828</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.1005997559444</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.05094872068305</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.1059199009255</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.05041857628567</v>
       </c>
     </row>
@@ -20496,27 +20503,28 @@
       <c r="P4" t="n">
         <v>366.6349632944455</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.11111655851818 -41.0492174082277, 172.1004763394839 -41.05027769404007)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.1111165585182</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.0492174082277</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.1004763394839</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.05027769404007</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.105796449001</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.04974755113388</v>
       </c>
     </row>
@@ -20573,27 +20581,28 @@
       <c r="P5" t="n">
         <v>356.8381703354382</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.11099307113022 -41.04854637772351, 172.10035292302234 -41.04960666055368)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1109930711302</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.04854637772351</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.1003529230223</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.04960666055368</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.1056729970763</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.04907651913859</v>
       </c>
     </row>
@@ -20650,27 +20659,28 @@
       <c r="P6" t="n">
         <v>339.6982529567201</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.1108695837428 -41.04787534037575, 172.10022950655969 -41.0489356202239)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1108695837428</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.04787534037575</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.1002295065597</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.0489356202239</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.1055495451512</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.04840548029982</v>
       </c>
     </row>
@@ -20727,27 +20737,28 @@
       <c r="P7" t="n">
         <v>337.2096520208096</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.11074609635594 -41.04720429618435, 172.100106090096 -41.04826457305083)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1107460963559</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.04720429618435</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.100106090096</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.04826457305083</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.105426093226</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.04773443461759</v>
       </c>
     </row>
@@ -20804,27 +20815,28 @@
       <c r="P8" t="n">
         <v>332.0706171837049</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.11062260896955 -41.0465332451495, 172.09998267363116 -41.04759351903438)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.1106226089695</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.0465332451495</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.0999826736312</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.04759351903438</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.1053026413003</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.04706338209193</v>
       </c>
     </row>
@@ -20881,27 +20893,28 @@
       <c r="P9" t="n">
         <v>329.006139337081</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.11049912158376 -41.04586218727118, 172.0998592571653 -41.046922458174485)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.1104991215838</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.04586218727118</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.0998592571653</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.04692245817449</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.1051791893745</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.04639232272284</v>
       </c>
     </row>
@@ -20958,27 +20971,28 @@
       <c r="P10" t="n">
         <v>330.0058957172899</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.11037563419848 -41.04519112254931, 172.09973584069837 -41.04625139047142)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.1103756341985</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.04519112254931</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.0997358406984</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.04625139047142</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.1050557374484</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.04572125651036</v>
       </c>
     </row>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:K431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15209,6 +15209,201 @@
       <c r="K426" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>365.3272727272728</v>
+      </c>
+      <c r="C427" t="n">
+        <v>365.4</v>
+      </c>
+      <c r="D427" t="n">
+        <v>370.15</v>
+      </c>
+      <c r="E427" t="n">
+        <v>362.53</v>
+      </c>
+      <c r="F427" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="G427" t="n">
+        <v>345.42</v>
+      </c>
+      <c r="H427" t="n">
+        <v>345.79</v>
+      </c>
+      <c r="I427" t="n">
+        <v>343.5068421052632</v>
+      </c>
+      <c r="J427" t="n">
+        <v>347.71</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>356.4536363636363</v>
+      </c>
+      <c r="C428" t="n">
+        <v>354.2976923076924</v>
+      </c>
+      <c r="D428" t="n">
+        <v>364.4</v>
+      </c>
+      <c r="E428" t="n">
+        <v>353.5476923076924</v>
+      </c>
+      <c r="F428" t="n">
+        <v>348.9276923076923</v>
+      </c>
+      <c r="G428" t="n">
+        <v>341.33</v>
+      </c>
+      <c r="H428" t="n">
+        <v>321.07</v>
+      </c>
+      <c r="I428" t="n">
+        <v>320.6205263157895</v>
+      </c>
+      <c r="J428" t="n">
+        <v>320.18</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>369.0363636363636</v>
+      </c>
+      <c r="C429" t="n">
+        <v>362.2292307692308</v>
+      </c>
+      <c r="D429" t="n">
+        <v>369.82</v>
+      </c>
+      <c r="E429" t="n">
+        <v>360.2792307692308</v>
+      </c>
+      <c r="F429" t="n">
+        <v>348.9592307692308</v>
+      </c>
+      <c r="G429" t="n">
+        <v>348.805</v>
+      </c>
+      <c r="H429" t="n">
+        <v>338.115</v>
+      </c>
+      <c r="I429" t="n">
+        <v>337.9831578947368</v>
+      </c>
+      <c r="J429" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>388.8763636363637</v>
+      </c>
+      <c r="C430" t="n">
+        <v>377.4430769230769</v>
+      </c>
+      <c r="D430" t="n">
+        <v>383.19</v>
+      </c>
+      <c r="E430" t="n">
+        <v>373.9730769230769</v>
+      </c>
+      <c r="F430" t="n">
+        <v>363.9130769230769</v>
+      </c>
+      <c r="G430" t="n">
+        <v>355.565</v>
+      </c>
+      <c r="H430" t="n">
+        <v>344.925</v>
+      </c>
+      <c r="I430" t="n">
+        <v>339.2805263157895</v>
+      </c>
+      <c r="J430" t="n">
+        <v>347.55</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>396.2727272727273</v>
+      </c>
+      <c r="C431" t="n">
+        <v>388.83</v>
+      </c>
+      <c r="D431" t="n">
+        <v>393.01</v>
+      </c>
+      <c r="E431" t="n">
+        <v>375.68</v>
+      </c>
+      <c r="F431" t="n">
+        <v>365.76</v>
+      </c>
+      <c r="G431" t="n">
+        <v>357.965</v>
+      </c>
+      <c r="H431" t="n">
+        <v>350.665</v>
+      </c>
+      <c r="I431" t="n">
+        <v>343.4857894736842</v>
+      </c>
+      <c r="J431" t="n">
+        <v>335.85</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15223,7 +15418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B492"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20151,6 +20346,56 @@
       </c>
       <c r="B492" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
@@ -20324,28 +20569,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2100567271347243</v>
+        <v>0.2099879541581078</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007796575803226125</v>
+        <v>0.007948091426892456</v>
       </c>
       <c r="M2" t="n">
-        <v>12.76278173836952</v>
+        <v>12.78201419171507</v>
       </c>
       <c r="N2" t="n">
-        <v>320.6799118847625</v>
+        <v>319.0431111889703</v>
       </c>
       <c r="O2" t="n">
-        <v>17.90753785099343</v>
+        <v>17.86177794031071</v>
       </c>
       <c r="P2" t="n">
-        <v>369.8725206797292</v>
+        <v>369.8726137285864</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20402,28 +20647,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3719032511866395</v>
+        <v>0.3695405537781581</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0323634776639542</v>
+        <v>0.03254333968203482</v>
       </c>
       <c r="M3" t="n">
-        <v>11.33459026781849</v>
+        <v>11.32789855628906</v>
       </c>
       <c r="N3" t="n">
-        <v>220.7923886156306</v>
+        <v>219.5780084245129</v>
       </c>
       <c r="O3" t="n">
-        <v>14.85908438012351</v>
+        <v>14.81816481297576</v>
       </c>
       <c r="P3" t="n">
-        <v>360.9391573063032</v>
+        <v>360.9631164805489</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20480,28 +20725,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3083534342360434</v>
+        <v>0.3128595630528964</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0138693131549793</v>
+        <v>0.01460127633413477</v>
       </c>
       <c r="M4" t="n">
-        <v>12.7084894921565</v>
+        <v>12.65966188651508</v>
       </c>
       <c r="N4" t="n">
-        <v>361.5977110822227</v>
+        <v>357.7073689792261</v>
       </c>
       <c r="O4" t="n">
-        <v>19.01572273362816</v>
+        <v>18.91315333251508</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6349632944455</v>
+        <v>366.5881213927149</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20558,28 +20803,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1329834961121915</v>
+        <v>0.1473153281361063</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K5" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004356783835565814</v>
+        <v>0.005461447950560694</v>
       </c>
       <c r="M5" t="n">
-        <v>11.43037367346953</v>
+        <v>11.37464003052875</v>
       </c>
       <c r="N5" t="n">
-        <v>220.7798678556146</v>
+        <v>218.7387837595895</v>
       </c>
       <c r="O5" t="n">
-        <v>14.85866305747642</v>
+        <v>14.7898202747562</v>
       </c>
       <c r="P5" t="n">
-        <v>356.8381703354382</v>
+        <v>356.6929044323236</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20636,28 +20881,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5897957053739677</v>
+        <v>0.5920523074226857</v>
       </c>
       <c r="J6" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K6" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06983595510848561</v>
+        <v>0.0718960400383899</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2103315139293</v>
+        <v>12.13534770476806</v>
       </c>
       <c r="N6" t="n">
-        <v>262.5272333914069</v>
+        <v>259.4589190179582</v>
       </c>
       <c r="O6" t="n">
-        <v>16.20269216492762</v>
+        <v>16.10772854930075</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6982529567201</v>
+        <v>339.6757653476253</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20714,28 +20959,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6229495146768279</v>
+        <v>0.6143371934840856</v>
       </c>
       <c r="J7" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08267198450207958</v>
+        <v>0.08239560585300543</v>
       </c>
       <c r="M7" t="n">
-        <v>11.15011794431112</v>
+        <v>11.07430128977128</v>
       </c>
       <c r="N7" t="n">
-        <v>243.4203217473712</v>
+        <v>240.5928329109226</v>
       </c>
       <c r="O7" t="n">
-        <v>15.60193326954616</v>
+        <v>15.51105518367215</v>
       </c>
       <c r="P7" t="n">
-        <v>337.2096520208096</v>
+        <v>337.2937680946392</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20792,28 +21037,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7727415603384215</v>
+        <v>0.743047667137633</v>
       </c>
       <c r="J8" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K8" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08048976493268722</v>
+        <v>0.07602444887588833</v>
       </c>
       <c r="M8" t="n">
-        <v>12.90099878930547</v>
+        <v>12.85934597215689</v>
       </c>
       <c r="N8" t="n">
-        <v>371.9111136814271</v>
+        <v>370.0277626775555</v>
       </c>
       <c r="O8" t="n">
-        <v>19.28499711385581</v>
+        <v>19.23610570457429</v>
       </c>
       <c r="P8" t="n">
-        <v>332.0706171837049</v>
+        <v>332.3718422661668</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20870,28 +21115,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8025525893991682</v>
+        <v>0.7699766589983601</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K9" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07670082920033083</v>
+        <v>0.07227717616800711</v>
       </c>
       <c r="M9" t="n">
-        <v>12.68004634656668</v>
+        <v>12.63304447006816</v>
       </c>
       <c r="N9" t="n">
-        <v>422.1659568722512</v>
+        <v>419.3035219663775</v>
       </c>
       <c r="O9" t="n">
-        <v>20.54667751419317</v>
+        <v>20.47690215746458</v>
       </c>
       <c r="P9" t="n">
-        <v>329.006139337081</v>
+        <v>329.3360800344211</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20948,28 +21193,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5928921718136599</v>
+        <v>0.5793437828623876</v>
       </c>
       <c r="J10" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K10" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0643679454815631</v>
+        <v>0.06277555658510314</v>
       </c>
       <c r="M10" t="n">
-        <v>12.21479299398622</v>
+        <v>12.16441426057123</v>
       </c>
       <c r="N10" t="n">
-        <v>274.9150329975602</v>
+        <v>273.0226850429744</v>
       </c>
       <c r="O10" t="n">
-        <v>16.58056190234698</v>
+        <v>16.52339810822745</v>
       </c>
       <c r="P10" t="n">
-        <v>330.0058957172899</v>
+        <v>330.1440725602026</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21007,7 +21252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:K431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41585,6 +41830,291 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-41.05098902718255,172.10705380999428</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-41.0503180931946,172.10692950805563</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-41.0496526511226,172.10675002965797</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-41.04897265962249,172.10671647633848</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-41.04828766486039,172.10673305620875</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-41.04761045777175,172.10667142338076</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-41.04693983919422,172.10654361241956</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-41.046266094648296,172.1064470985059</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>-41.04559996871808,172.10627407148095</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-41.050978594830326,172.10715849188017</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-41.05030504075658,172.1070604801525</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-41.049645891223726,172.10681786079567</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-41.04896209967599,172.10682243700347</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-41.04828562828816,172.1067534913332</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>-41.04760564939749,172.10671967046727</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>-41.04691077721584,172.1068352152477</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-41.04623918856348,172.10671706804055</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>-41.045567603593014,172.10659881518316</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-41.05099338777277,172.1070100540077</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-41.05031436549215,172.1069669131035</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-41.049652263164276,172.1067539225758</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-41.04897001354077,172.1067430277593</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-41.048285665366116,172.10675311929052</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>-41.04761443730334,172.10663149271852</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>-41.046930816187576,172.10663414851788</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-41.046259600838326,172.1065122565203</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>-41.04560219062722,172.1062517770421</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-41.051016712372075,172.1067760022842</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-41.050332251479865,172.10678743780338</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-41.0496679812491,172.10659620038552</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-41.048986112402304,172.10658148692366</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-41.04830324560272,172.10657671657822</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-41.04762238456856,172.10655174934396</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-41.046938822272615,172.1065538161634</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-41.04626112606714,172.10649695261426</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>-41.04559978061977,172.10627595884083</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-41.05102540767426,172.10668874762422</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-41.050345638204746,172.10665310803992</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-41.049679525732856,172.10648035651755</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-41.048988119092016,172.10656135102838</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-41.04830541688782,172.10655492938517</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>-41.047625206069526,172.10652343808232</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>-41.04694557038287,172.10648610576507</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-41.046266069898245,172.1064473468452</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>-41.04558602584549,172.1064139720014</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K431"/>
+  <dimension ref="A1:K434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15402,6 +15402,119 @@
         <v>335.85</v>
       </c>
       <c r="K431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>401.3809090909091</v>
+      </c>
+      <c r="C432" t="n">
+        <v>395.8776923076923</v>
+      </c>
+      <c r="D432" t="n">
+        <v>398.09</v>
+      </c>
+      <c r="E432" t="n">
+        <v>371.7176923076924</v>
+      </c>
+      <c r="F432" t="n">
+        <v>374.5076923076923</v>
+      </c>
+      <c r="G432" t="n">
+        <v>359.085</v>
+      </c>
+      <c r="H432" t="n">
+        <v>356.895</v>
+      </c>
+      <c r="I432" t="n">
+        <v>346.01</v>
+      </c>
+      <c r="J432" t="n">
+        <v>348.17</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="n">
+        <v>348.0215384615385</v>
+      </c>
+      <c r="D433" t="n">
+        <v>366.11</v>
+      </c>
+      <c r="E433" t="n">
+        <v>378.3615384615384</v>
+      </c>
+      <c r="F433" t="n">
+        <v>353.5815384615385</v>
+      </c>
+      <c r="G433" t="n">
+        <v>355.865</v>
+      </c>
+      <c r="H433" t="n">
+        <v>355.755</v>
+      </c>
+      <c r="I433" t="n">
+        <v>350.5221052631579</v>
+      </c>
+      <c r="J433" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="n">
+        <v>355.8707692307692</v>
+      </c>
+      <c r="D434" t="n">
+        <v>359.01</v>
+      </c>
+      <c r="E434" t="n">
+        <v>357.5107692307692</v>
+      </c>
+      <c r="F434" t="n">
+        <v>347.8607692307692</v>
+      </c>
+      <c r="G434" t="n">
+        <v>345.71</v>
+      </c>
+      <c r="H434" t="n">
+        <v>341.9</v>
+      </c>
+      <c r="I434" t="n">
+        <v>337.5715789473684</v>
+      </c>
+      <c r="J434" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="K434" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15418,7 +15531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20396,6 +20509,36 @@
       </c>
       <c r="B497" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -20569,28 +20712,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2099879541581078</v>
+        <v>0.2256159127801466</v>
       </c>
       <c r="J2" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007948091426892456</v>
+        <v>0.009156134597493204</v>
       </c>
       <c r="M2" t="n">
-        <v>12.78201419171507</v>
+        <v>12.83552663260739</v>
       </c>
       <c r="N2" t="n">
-        <v>319.0431111889703</v>
+        <v>320.2388869226471</v>
       </c>
       <c r="O2" t="n">
-        <v>17.86177794031071</v>
+        <v>17.89521966678943</v>
       </c>
       <c r="P2" t="n">
-        <v>369.8726137285864</v>
+        <v>369.7207608218297</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20647,28 +20790,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3695405537781581</v>
+        <v>0.3626328543687081</v>
       </c>
       <c r="J3" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03254333968203482</v>
+        <v>0.03128318133970931</v>
       </c>
       <c r="M3" t="n">
-        <v>11.32789855628906</v>
+        <v>11.42068149157387</v>
       </c>
       <c r="N3" t="n">
-        <v>219.5780084245129</v>
+        <v>221.8998110843336</v>
       </c>
       <c r="O3" t="n">
-        <v>14.81816481297576</v>
+        <v>14.89630192646261</v>
       </c>
       <c r="P3" t="n">
-        <v>360.9631164805489</v>
+        <v>361.0354011455111</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20725,28 +20868,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3128595630528964</v>
+        <v>0.3124031852267109</v>
       </c>
       <c r="J4" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K4" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01460127633413477</v>
+        <v>0.0146879137050806</v>
       </c>
       <c r="M4" t="n">
-        <v>12.65966188651508</v>
+        <v>12.68897848110215</v>
       </c>
       <c r="N4" t="n">
-        <v>357.7073689792261</v>
+        <v>357.0734630875337</v>
       </c>
       <c r="O4" t="n">
-        <v>18.91315333251508</v>
+        <v>18.89638756713922</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5881213927149</v>
+        <v>366.5932547267478</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20803,28 +20946,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1473153281361063</v>
+        <v>0.1621243117537686</v>
       </c>
       <c r="J5" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K5" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005461447950560694</v>
+        <v>0.006676925577032478</v>
       </c>
       <c r="M5" t="n">
-        <v>11.37464003052875</v>
+        <v>11.37322215213553</v>
       </c>
       <c r="N5" t="n">
-        <v>218.7387837595895</v>
+        <v>218.0763948644803</v>
       </c>
       <c r="O5" t="n">
-        <v>14.7898202747562</v>
+        <v>14.76740989017642</v>
       </c>
       <c r="P5" t="n">
-        <v>356.6929044323236</v>
+        <v>356.5422543301643</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20881,28 +21024,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5920523074226857</v>
+        <v>0.597812392147323</v>
       </c>
       <c r="J6" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0718960400383899</v>
+        <v>0.07393720561319672</v>
       </c>
       <c r="M6" t="n">
-        <v>12.13534770476806</v>
+        <v>12.11182787204008</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4589190179582</v>
+        <v>258.4418907340176</v>
       </c>
       <c r="O6" t="n">
-        <v>16.10772854930075</v>
+        <v>16.07612797703532</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6757653476253</v>
+        <v>339.6188417454871</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20959,28 +21102,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6143371934840856</v>
+        <v>0.6150139583095813</v>
       </c>
       <c r="J7" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K7" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08239560585300543</v>
+        <v>0.08368711767666548</v>
       </c>
       <c r="M7" t="n">
-        <v>11.07430128977128</v>
+        <v>11.02545814844396</v>
       </c>
       <c r="N7" t="n">
-        <v>240.5928329109226</v>
+        <v>238.7971121549152</v>
       </c>
       <c r="O7" t="n">
-        <v>15.51105518367215</v>
+        <v>15.45306157869421</v>
       </c>
       <c r="P7" t="n">
-        <v>337.2937680946392</v>
+        <v>337.2872326406516</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21037,28 +21180,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.743047667137633</v>
+        <v>0.7430667075218254</v>
       </c>
       <c r="J8" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07602444887588833</v>
+        <v>0.07701938665173991</v>
       </c>
       <c r="M8" t="n">
-        <v>12.85934597215689</v>
+        <v>12.80527527636798</v>
       </c>
       <c r="N8" t="n">
-        <v>370.0277626775555</v>
+        <v>367.3033642634647</v>
       </c>
       <c r="O8" t="n">
-        <v>19.23610570457429</v>
+        <v>19.1651601679575</v>
       </c>
       <c r="P8" t="n">
-        <v>332.3718422661668</v>
+        <v>332.3718054336203</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21115,28 +21258,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7699766589983601</v>
+        <v>0.7631354951876272</v>
       </c>
       <c r="J9" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07227717616800711</v>
+        <v>0.07205552590738717</v>
       </c>
       <c r="M9" t="n">
-        <v>12.63304447006816</v>
+        <v>12.56146418706642</v>
       </c>
       <c r="N9" t="n">
-        <v>419.3035219663775</v>
+        <v>416.1229497395913</v>
       </c>
       <c r="O9" t="n">
-        <v>20.47690215746458</v>
+        <v>20.39909188516958</v>
       </c>
       <c r="P9" t="n">
-        <v>329.3360800344211</v>
+        <v>329.4059509127122</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21193,28 +21336,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5793437828623876</v>
+        <v>0.5760853469252306</v>
       </c>
       <c r="J10" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K10" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06277555658510314</v>
+        <v>0.06301163517345165</v>
       </c>
       <c r="M10" t="n">
-        <v>12.16441426057123</v>
+        <v>12.09360138136857</v>
       </c>
       <c r="N10" t="n">
-        <v>273.0226850429744</v>
+        <v>270.852039301054</v>
       </c>
       <c r="O10" t="n">
-        <v>16.52339810822745</v>
+        <v>16.45758303339388</v>
       </c>
       <c r="P10" t="n">
-        <v>330.1440725602026</v>
+        <v>330.1776368194265</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21252,7 +21395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K431"/>
+  <dimension ref="A1:K434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42115,6 +42258,169 @@
         </is>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-41.05103141290878,172.1066284865576</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-41.05035392355284,172.10656996748213</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-41.04968549778243,172.1064204291247</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-41.04898346092586,172.10660809280063</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-41.04831570081927,172.10645173738038</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-41.04762652276759,172.10651022615946</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>-41.046952894506106,172.10641261519592</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-41.046269037424125,172.10641757096343</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>-41.0456005095006,172.10626864532136</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>-41.05029766212456,172.1071345188849</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>-41.04964790156306,172.10679768840652</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-41.04899127155009,172.10652971797919</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>-41.048291099533,172.10669859235054</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>-41.04762273725657,172.1065482104364</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>-41.04695155430087,172.10642606290958</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-41.0462743419502,172.10636434563713</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>-41.04559607742762,172.10631311623555</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>-41.050306890154964,172.10704192282589</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>-41.04963955451691,172.10688144510235</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-41.048966758833735,172.10677568618564</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>-41.048284373967675,172.10676607726404</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>-41.04761079870705,172.10666800243794</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>-41.04693526597893,172.10658949977395</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-41.046259116972195,172.10651711155242</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>-41.04558680176024,172.1064061866451</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K434"/>
+  <dimension ref="A1:K436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15489,7 +15489,9 @@
           <t>2025-05-21 22:12:51+00:00</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr"/>
+      <c r="B434" t="n">
+        <v>357.7527272727273</v>
+      </c>
       <c r="C434" t="n">
         <v>355.8707692307692</v>
       </c>
@@ -15517,6 +15519,78 @@
       <c r="K434" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>381.5481818181818</v>
+      </c>
+      <c r="C435" t="n">
+        <v>365.5215384615385</v>
+      </c>
+      <c r="D435" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="E435" t="n">
+        <v>370.1615384615384</v>
+      </c>
+      <c r="F435" t="n">
+        <v>363.9415384615385</v>
+      </c>
+      <c r="G435" t="n">
+        <v>346.91</v>
+      </c>
+      <c r="H435" t="n">
+        <v>330.78</v>
+      </c>
+      <c r="I435" t="n">
+        <v>324.7215789473684</v>
+      </c>
+      <c r="J435" t="n">
+        <v>323.19</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="n">
+        <v>340.0292307692308</v>
+      </c>
+      <c r="F436" t="n">
+        <v>335.0692307692308</v>
+      </c>
+      <c r="G436" t="n">
+        <v>336.175</v>
+      </c>
+      <c r="H436" t="n">
+        <v>326.605</v>
+      </c>
+      <c r="I436" t="n">
+        <v>316.7894736842105</v>
+      </c>
+      <c r="J436" t="n">
+        <v>309.06</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20539,6 +20613,26 @@
       </c>
       <c r="B500" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -20712,28 +20806,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2256159127801466</v>
+        <v>0.2186670421514882</v>
       </c>
       <c r="J2" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009156134597493204</v>
+        <v>0.008680691129433482</v>
       </c>
       <c r="M2" t="n">
-        <v>12.83552663260739</v>
+        <v>12.82535527558763</v>
       </c>
       <c r="N2" t="n">
-        <v>320.2388869226471</v>
+        <v>319.2738055324086</v>
       </c>
       <c r="O2" t="n">
-        <v>17.89521966678943</v>
+        <v>17.86823453876763</v>
       </c>
       <c r="P2" t="n">
-        <v>369.7207608218297</v>
+        <v>369.7884990407862</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20790,28 +20884,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3626328543687081</v>
+        <v>0.3597857246606521</v>
       </c>
       <c r="J3" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03128318133970931</v>
+        <v>0.03097001876875816</v>
       </c>
       <c r="M3" t="n">
-        <v>11.42068149157387</v>
+        <v>11.39844631129413</v>
       </c>
       <c r="N3" t="n">
-        <v>221.8998110843336</v>
+        <v>221.246951470858</v>
       </c>
       <c r="O3" t="n">
-        <v>14.89630192646261</v>
+        <v>14.87437230510444</v>
       </c>
       <c r="P3" t="n">
-        <v>361.0354011455111</v>
+        <v>361.0651201230373</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20868,28 +20962,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3124031852267109</v>
+        <v>0.3101744601884714</v>
       </c>
       <c r="J4" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0146879137050806</v>
+        <v>0.01455766087940047</v>
       </c>
       <c r="M4" t="n">
-        <v>12.68897848110215</v>
+        <v>12.65983268278892</v>
       </c>
       <c r="N4" t="n">
-        <v>357.0734630875337</v>
+        <v>356.0247405336671</v>
       </c>
       <c r="O4" t="n">
-        <v>18.89638756713922</v>
+        <v>18.86861787555377</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5932547267478</v>
+        <v>366.6164510151104</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20946,28 +21040,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1621243117537686</v>
+        <v>0.1557841739677761</v>
       </c>
       <c r="J5" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K5" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006676925577032478</v>
+        <v>0.006191002737879869</v>
       </c>
       <c r="M5" t="n">
-        <v>11.37322215213553</v>
+        <v>11.39455446446163</v>
       </c>
       <c r="N5" t="n">
-        <v>218.0763948644803</v>
+        <v>218.3309103421042</v>
       </c>
       <c r="O5" t="n">
-        <v>14.76740989017642</v>
+        <v>14.7760248491299</v>
       </c>
       <c r="P5" t="n">
-        <v>356.5422543301643</v>
+        <v>356.6071782856577</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21024,28 +21118,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.597812392147323</v>
+        <v>0.5921353559385885</v>
       </c>
       <c r="J6" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07393720561319672</v>
+        <v>0.07297498170177785</v>
       </c>
       <c r="M6" t="n">
-        <v>12.11182787204008</v>
+        <v>12.12423647727512</v>
       </c>
       <c r="N6" t="n">
-        <v>258.4418907340176</v>
+        <v>258.3253623324453</v>
       </c>
       <c r="O6" t="n">
-        <v>16.07612797703532</v>
+        <v>16.0725033001224</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6188417454871</v>
+        <v>339.6755065291535</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21102,28 +21196,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6150139583095813</v>
+        <v>0.6032552241413968</v>
       </c>
       <c r="J7" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08368711767666548</v>
+        <v>0.0812644578152435</v>
       </c>
       <c r="M7" t="n">
-        <v>11.02545814844396</v>
+        <v>11.02460265212338</v>
       </c>
       <c r="N7" t="n">
-        <v>238.7971121549152</v>
+        <v>238.3536815191216</v>
       </c>
       <c r="O7" t="n">
-        <v>15.45306157869421</v>
+        <v>15.43870724896102</v>
       </c>
       <c r="P7" t="n">
-        <v>337.2872326406516</v>
+        <v>337.4036097538884</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21180,28 +21274,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7430667075218254</v>
+        <v>0.7203893136052106</v>
       </c>
       <c r="J8" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07701938665173991</v>
+        <v>0.07286465898519268</v>
       </c>
       <c r="M8" t="n">
-        <v>12.80527527636798</v>
+        <v>12.8426593706171</v>
       </c>
       <c r="N8" t="n">
-        <v>367.3033642634647</v>
+        <v>368.1461702125122</v>
       </c>
       <c r="O8" t="n">
-        <v>19.1651601679575</v>
+        <v>19.18713553953566</v>
       </c>
       <c r="P8" t="n">
-        <v>332.3718054336203</v>
+        <v>332.6044076458354</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21258,28 +21352,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7631354951876272</v>
+        <v>0.7343747402338854</v>
       </c>
       <c r="J9" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K9" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07205552590738717</v>
+        <v>0.06703472353690199</v>
       </c>
       <c r="M9" t="n">
-        <v>12.56146418706642</v>
+        <v>12.61277518031754</v>
       </c>
       <c r="N9" t="n">
-        <v>416.1229497395913</v>
+        <v>418.3371920741857</v>
       </c>
       <c r="O9" t="n">
-        <v>20.39909188516958</v>
+        <v>20.45329293962676</v>
       </c>
       <c r="P9" t="n">
-        <v>329.4059509127122</v>
+        <v>329.7003818226872</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21336,28 +21430,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5760853469252306</v>
+        <v>0.5454970925905598</v>
       </c>
       <c r="J10" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06301163517345165</v>
+        <v>0.05643115724618841</v>
       </c>
       <c r="M10" t="n">
-        <v>12.09360138136857</v>
+        <v>12.20106857311313</v>
       </c>
       <c r="N10" t="n">
-        <v>270.852039301054</v>
+        <v>274.3784418458438</v>
       </c>
       <c r="O10" t="n">
-        <v>16.45758303339388</v>
+        <v>16.56437266683661</v>
       </c>
       <c r="P10" t="n">
-        <v>330.1776368194265</v>
+        <v>330.4927516631294</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21395,7 +21489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K434"/>
+  <dimension ref="A1:K436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27079,7 +27173,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>-41.04627326904327,172.1063751111476</t>
+          <t>-41.04627326904326,172.1063751111476</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -42374,7 +42468,11 @@
           <t>2025-05-21 22:12:51+00:00</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr"/>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>-41.050980122121544,172.10714316656558</t>
+        </is>
+      </c>
       <c r="C434" t="inlineStr">
         <is>
           <t>-41.050306890154964,172.10704192282589</t>
@@ -42418,6 +42516,108 @@
       <c r="K434" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>-41.05100809716029,172.10686245258395</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>-41.050318236080564,172.10692807428612</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>-41.04965318015647,172.1067447211336</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-41.04898163147586,172.10662645012857</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>-41.04830327906278,172.10657638083222</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>-41.047612209472746,172.10665384681212</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>-41.04692219283047,172.1067206738746</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>-41.046244009974636,172.1066686915815</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>-41.04557114228746,172.1065633092573</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-41.04894620666814,172.10698190878716</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-41.04826933557944,172.10691697228557</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>-41.047599588935995,172.10678048066094</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>-41.04691728448287,172.1067699231308</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-41.04623468455998,172.1067622595445</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>-41.04555453031436,172.10672998654564</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K436"/>
+  <dimension ref="A1:K437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15591,6 +15591,31 @@
       <c r="K436" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:18:48+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="n">
+        <v>422.7507692307692</v>
+      </c>
+      <c r="D437" t="n">
+        <v>429.79</v>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20633,6 +20658,36 @@
       </c>
       <c r="B502" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -20809,7 +20864,7 @@
         <v>0.2186670421514882</v>
       </c>
       <c r="J2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K2" t="n">
         <v>300</v>
@@ -20884,28 +20939,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3597857246606521</v>
+        <v>0.3903272777992271</v>
       </c>
       <c r="J3" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03097001876875816</v>
+        <v>0.03508502197196206</v>
       </c>
       <c r="M3" t="n">
-        <v>11.39844631129413</v>
+        <v>11.5386922506468</v>
       </c>
       <c r="N3" t="n">
-        <v>221.246951470858</v>
+        <v>229.4416534868789</v>
       </c>
       <c r="O3" t="n">
-        <v>14.87437230510444</v>
+        <v>15.14733156324502</v>
       </c>
       <c r="P3" t="n">
-        <v>361.0651201230373</v>
+        <v>360.7455510425772</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20962,28 +21017,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3101744601884714</v>
+        <v>0.340432986939877</v>
       </c>
       <c r="J4" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01455766087940047</v>
+        <v>0.01713844933497755</v>
       </c>
       <c r="M4" t="n">
-        <v>12.65983268278892</v>
+        <v>12.82425100677553</v>
       </c>
       <c r="N4" t="n">
-        <v>356.0247405336671</v>
+        <v>364.1883264624308</v>
       </c>
       <c r="O4" t="n">
-        <v>18.86861787555377</v>
+        <v>19.08371888449499</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6164510151104</v>
+        <v>366.3007706162211</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21043,7 +21098,7 @@
         <v>0.1557841739677761</v>
       </c>
       <c r="J5" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K5" t="n">
         <v>315</v>
@@ -21121,7 +21176,7 @@
         <v>0.5921353559385885</v>
       </c>
       <c r="J6" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K6" t="n">
         <v>339</v>
@@ -21199,7 +21254,7 @@
         <v>0.6032552241413968</v>
       </c>
       <c r="J7" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K7" t="n">
         <v>349</v>
@@ -21277,7 +21332,7 @@
         <v>0.7203893136052106</v>
       </c>
       <c r="J8" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K8" t="n">
         <v>358</v>
@@ -21355,7 +21410,7 @@
         <v>0.7343747402338854</v>
       </c>
       <c r="J9" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K9" t="n">
         <v>352</v>
@@ -21433,7 +21488,7 @@
         <v>0.5454970925905598</v>
       </c>
       <c r="J10" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K10" t="n">
         <v>341</v>
@@ -21489,7 +21544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K436"/>
+  <dimension ref="A1:K437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42621,6 +42676,35 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:18:48+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-41.05038551529845,172.10625294968577</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-41.049722763605615,172.10604647252356</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -15489,9 +15489,7 @@
           <t>2025-05-21 22:12:51+00:00</t>
         </is>
       </c>
-      <c r="B434" t="n">
-        <v>357.7527272727273</v>
-      </c>
+      <c r="B434" t="inlineStr"/>
       <c r="C434" t="n">
         <v>355.8707692307692</v>
       </c>
@@ -15597,25 +15595,39 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13 22:18:48+00:00</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr"/>
+          <t>2025-07-16 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>378.3318181818182</v>
+      </c>
       <c r="C437" t="n">
-        <v>422.7507692307692</v>
+        <v>372.6530769230769</v>
       </c>
       <c r="D437" t="n">
-        <v>429.79</v>
-      </c>
-      <c r="E437" t="inlineStr"/>
-      <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr"/>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+        <v>363.75</v>
+      </c>
+      <c r="E437" t="n">
+        <v>352.7230769230769</v>
+      </c>
+      <c r="F437" t="n">
+        <v>338.2830769230769</v>
+      </c>
+      <c r="G437" t="n">
+        <v>333.41</v>
+      </c>
+      <c r="H437" t="n">
+        <v>318.05</v>
+      </c>
+      <c r="I437" t="n">
+        <v>306.0042105263158</v>
+      </c>
+      <c r="J437" t="n">
+        <v>301.41</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15630,7 +15642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20688,6 +20700,46 @@
       </c>
       <c r="B505" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -20861,7 +20913,7 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2186670421514882</v>
+        <v>0.2308318638480714</v>
       </c>
       <c r="J2" t="n">
         <v>436</v>
@@ -20870,19 +20922,19 @@
         <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008680691129433482</v>
+        <v>0.009696423960564804</v>
       </c>
       <c r="M2" t="n">
-        <v>12.82535527558763</v>
+        <v>12.78165509110217</v>
       </c>
       <c r="N2" t="n">
-        <v>319.2738055324086</v>
+        <v>318.2474348715273</v>
       </c>
       <c r="O2" t="n">
-        <v>17.86823453876763</v>
+        <v>17.83949088039026</v>
       </c>
       <c r="P2" t="n">
-        <v>369.7884990407862</v>
+        <v>369.6697182760416</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20939,7 +20991,7 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3903272777992271</v>
+        <v>0.3611178324146729</v>
       </c>
       <c r="J3" t="n">
         <v>436</v>
@@ -20948,19 +21000,19 @@
         <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03508502197196206</v>
+        <v>0.03136653913112786</v>
       </c>
       <c r="M3" t="n">
-        <v>11.5386922506468</v>
+        <v>11.36873652522832</v>
       </c>
       <c r="N3" t="n">
-        <v>229.4416534868789</v>
+        <v>220.5382131502954</v>
       </c>
       <c r="O3" t="n">
-        <v>15.14733156324502</v>
+        <v>14.85052905287537</v>
       </c>
       <c r="P3" t="n">
-        <v>360.7455510425772</v>
+        <v>361.0511134391036</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21017,7 +21069,7 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.340432986939877</v>
+        <v>0.3041388695486217</v>
       </c>
       <c r="J4" t="n">
         <v>436</v>
@@ -21026,19 +21078,19 @@
         <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01713844933497755</v>
+        <v>0.01406657702284386</v>
       </c>
       <c r="M4" t="n">
-        <v>12.82425100677553</v>
+        <v>12.64732185251377</v>
       </c>
       <c r="N4" t="n">
-        <v>364.1883264624308</v>
+        <v>355.2942562291076</v>
       </c>
       <c r="O4" t="n">
-        <v>19.08371888449499</v>
+        <v>18.84925081347022</v>
       </c>
       <c r="P4" t="n">
-        <v>366.3007706162211</v>
+        <v>366.6797247635421</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21095,28 +21147,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1557841739677761</v>
+        <v>0.1513201406213512</v>
       </c>
       <c r="J5" t="n">
         <v>436</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006191002737879869</v>
+        <v>0.005871089465310009</v>
       </c>
       <c r="M5" t="n">
-        <v>11.39455446446163</v>
+        <v>11.38186359218172</v>
       </c>
       <c r="N5" t="n">
-        <v>218.3309103421042</v>
+        <v>217.8367959269614</v>
       </c>
       <c r="O5" t="n">
-        <v>14.7760248491299</v>
+        <v>14.75929523815285</v>
       </c>
       <c r="P5" t="n">
-        <v>356.6071782856577</v>
+        <v>356.6531259846502</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21173,28 +21225,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5921353559385885</v>
+        <v>0.58353672213568</v>
       </c>
       <c r="J6" t="n">
         <v>436</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07297498170177785</v>
+        <v>0.071157632602183</v>
       </c>
       <c r="M6" t="n">
-        <v>12.12423647727512</v>
+        <v>12.13539920547113</v>
       </c>
       <c r="N6" t="n">
-        <v>258.3253623324453</v>
+        <v>258.3827524484474</v>
       </c>
       <c r="O6" t="n">
-        <v>16.0725033001224</v>
+        <v>16.07428855185969</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6755065291535</v>
+        <v>339.7617921331816</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21251,28 +21303,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6032552241413968</v>
+        <v>0.5932800848481605</v>
       </c>
       <c r="J7" t="n">
         <v>436</v>
       </c>
       <c r="K7" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0812644578152435</v>
+        <v>0.07885985499413417</v>
       </c>
       <c r="M7" t="n">
-        <v>11.02460265212338</v>
+        <v>11.04677811899438</v>
       </c>
       <c r="N7" t="n">
-        <v>238.3536815191216</v>
+        <v>238.7642866100246</v>
       </c>
       <c r="O7" t="n">
-        <v>15.43870724896102</v>
+        <v>15.45199943729046</v>
       </c>
       <c r="P7" t="n">
-        <v>337.4036097538884</v>
+        <v>337.5029778454227</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21329,28 +21381,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7203893136052106</v>
+        <v>0.703825177416485</v>
       </c>
       <c r="J8" t="n">
         <v>436</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07286465898519268</v>
+        <v>0.06957206560115581</v>
       </c>
       <c r="M8" t="n">
-        <v>12.8426593706171</v>
+        <v>12.88755352283492</v>
       </c>
       <c r="N8" t="n">
-        <v>368.1461702125122</v>
+        <v>370.171249950229</v>
       </c>
       <c r="O8" t="n">
-        <v>19.18713553953566</v>
+        <v>19.23983497720885</v>
       </c>
       <c r="P8" t="n">
-        <v>332.6044076458354</v>
+        <v>332.775441869426</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21407,28 +21459,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7343747402338854</v>
+        <v>0.7125979023243035</v>
       </c>
       <c r="J9" t="n">
         <v>436</v>
       </c>
       <c r="K9" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06703472353690199</v>
+        <v>0.06294771159761026</v>
       </c>
       <c r="M9" t="n">
-        <v>12.61277518031754</v>
+        <v>12.67728524188794</v>
       </c>
       <c r="N9" t="n">
-        <v>418.3371920741857</v>
+        <v>422.2825182332566</v>
       </c>
       <c r="O9" t="n">
-        <v>20.45329293962676</v>
+        <v>20.54951381987556</v>
       </c>
       <c r="P9" t="n">
-        <v>329.7003818226872</v>
+        <v>329.9247879554779</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21485,28 +21537,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5454970925905598</v>
+        <v>0.5225475121822842</v>
       </c>
       <c r="J10" t="n">
         <v>436</v>
       </c>
       <c r="K10" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05643115724618841</v>
+        <v>0.05132660057431904</v>
       </c>
       <c r="M10" t="n">
-        <v>12.20106857311313</v>
+        <v>12.30298606191021</v>
       </c>
       <c r="N10" t="n">
-        <v>274.3784418458438</v>
+        <v>278.9926312157478</v>
       </c>
       <c r="O10" t="n">
-        <v>16.56437266683661</v>
+        <v>16.70307250824673</v>
       </c>
       <c r="P10" t="n">
-        <v>330.4927516631294</v>
+        <v>330.7306970636567</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -42523,11 +42575,7 @@
           <t>2025-05-21 22:12:51+00:00</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>-41.050980122121544,172.10714316656558</t>
-        </is>
-      </c>
+      <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr">
         <is>
           <t>-41.050306890154964,172.10704192282589</t>
@@ -42679,29 +42727,57 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13 22:18:48+00:00</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr"/>
+          <t>2025-07-16 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-41.0510043158943,172.1069003959044</t>
+        </is>
+      </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>-41.05038551529845,172.10625294968577</t>
+          <t>-41.050326620200316,172.10684394467418</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>-41.049722763605615,172.10604647252356</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr"/>
-      <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr"/>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+          <t>-41.049645127058724,172.1068255286626</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-41.04896113022152,172.1068321646573</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-41.048273113960356,172.10687906024648</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>-41.047596338258145,172.1068130975694</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>-41.046907226713,172.10687083984837</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-41.04622200469525,172.1068894836232</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>-41.04554553647,172.10682022580863</t>
+        </is>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K437"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15626,6 +15626,177 @@
         <v>301.41</v>
       </c>
       <c r="K437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>358.08</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>406.8627272727272</v>
+      </c>
+      <c r="C439" t="n">
+        <v>392.5884615384616</v>
+      </c>
+      <c r="D439" t="n">
+        <v>387.07</v>
+      </c>
+      <c r="E439" t="n">
+        <v>378.1884615384615</v>
+      </c>
+      <c r="F439" t="n">
+        <v>365.4684615384616</v>
+      </c>
+      <c r="G439" t="n">
+        <v>344.415</v>
+      </c>
+      <c r="H439" t="n">
+        <v>327.495</v>
+      </c>
+      <c r="I439" t="n">
+        <v>321.8536842105263</v>
+      </c>
+      <c r="J439" t="n">
+        <v>320.1799999999999</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:18+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="n">
+        <v>357.4161538461539</v>
+      </c>
+      <c r="D440" t="n">
+        <v>364.33</v>
+      </c>
+      <c r="E440" t="n">
+        <v>364.4161538461539</v>
+      </c>
+      <c r="F440" t="n">
+        <v>337.4861538461539</v>
+      </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="n">
+        <v>297.785</v>
+      </c>
+      <c r="I440" t="n">
+        <v>318.1242105263158</v>
+      </c>
+      <c r="J440" t="n">
+        <v>315.41</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>396.2490909090909</v>
+      </c>
+      <c r="C441" t="n">
+        <v>368.8869230769231</v>
+      </c>
+      <c r="D441" t="n">
+        <v>344.96</v>
+      </c>
+      <c r="E441" t="n">
+        <v>327.0869230769231</v>
+      </c>
+      <c r="F441" t="n">
+        <v>346.4169230769231</v>
+      </c>
+      <c r="G441" t="n">
+        <v>326.505</v>
+      </c>
+      <c r="H441" t="n">
+        <v>332.155</v>
+      </c>
+      <c r="I441" t="n">
+        <v>319.5510526315789</v>
+      </c>
+      <c r="J441" t="n">
+        <v>313.43</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="C442" t="n">
+        <v>390.0953846153847</v>
+      </c>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="n">
+        <v>361.0153846153846</v>
+      </c>
+      <c r="G442" t="n">
+        <v>356.085</v>
+      </c>
+      <c r="H442" t="n">
+        <v>349.505</v>
+      </c>
+      <c r="I442" t="n">
+        <v>345.5868421052632</v>
+      </c>
+      <c r="J442" t="n">
+        <v>349.13</v>
+      </c>
+      <c r="K442" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15642,7 +15813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20740,6 +20911,46 @@
       </c>
       <c r="B509" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
@@ -20913,28 +21124,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2308318638480714</v>
+        <v>0.2771666381533905</v>
       </c>
       <c r="J2" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009696423960564804</v>
+        <v>0.0138826913403951</v>
       </c>
       <c r="M2" t="n">
-        <v>12.78165509110217</v>
+        <v>12.93681400996645</v>
       </c>
       <c r="N2" t="n">
-        <v>318.2474348715273</v>
+        <v>321.9590959583181</v>
       </c>
       <c r="O2" t="n">
-        <v>17.83949088039026</v>
+        <v>17.94321866216644</v>
       </c>
       <c r="P2" t="n">
-        <v>369.6697182760416</v>
+        <v>369.2123350165184</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20991,28 +21202,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3611178324146729</v>
+        <v>0.376723137031055</v>
       </c>
       <c r="J3" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03136653913112786</v>
+        <v>0.03428845435131045</v>
       </c>
       <c r="M3" t="n">
-        <v>11.36873652522832</v>
+        <v>11.40669829969027</v>
       </c>
       <c r="N3" t="n">
-        <v>220.5382131502954</v>
+        <v>221.0566558495087</v>
       </c>
       <c r="O3" t="n">
-        <v>14.85052905287537</v>
+        <v>14.86797416763658</v>
       </c>
       <c r="P3" t="n">
-        <v>361.0511134391036</v>
+        <v>360.8862679466205</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21069,28 +21280,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3041388695486217</v>
+        <v>0.2892726034173346</v>
       </c>
       <c r="J4" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01406657702284386</v>
+        <v>0.01282507363628627</v>
       </c>
       <c r="M4" t="n">
-        <v>12.64732185251377</v>
+        <v>12.67312945877418</v>
       </c>
       <c r="N4" t="n">
-        <v>355.2942562291076</v>
+        <v>355.4957623244165</v>
       </c>
       <c r="O4" t="n">
-        <v>18.84925081347022</v>
+        <v>18.8545952575073</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6797247635421</v>
+        <v>366.8361224482424</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21147,28 +21358,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1513201406213512</v>
+        <v>0.1446356112451716</v>
       </c>
       <c r="J5" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005871089465310009</v>
+        <v>0.00534524794494351</v>
       </c>
       <c r="M5" t="n">
-        <v>11.38186359218172</v>
+        <v>11.44488033784058</v>
       </c>
       <c r="N5" t="n">
-        <v>217.8367959269614</v>
+        <v>220.3196211087098</v>
       </c>
       <c r="O5" t="n">
-        <v>14.75929523815285</v>
+        <v>14.84316748907422</v>
       </c>
       <c r="P5" t="n">
-        <v>356.6531259846502</v>
+        <v>356.7223093639187</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21225,28 +21436,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.58353672213568</v>
+        <v>0.5789028829837878</v>
       </c>
       <c r="J6" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.071157632602183</v>
+        <v>0.07107713000373339</v>
       </c>
       <c r="M6" t="n">
-        <v>12.13539920547113</v>
+        <v>12.11683781048881</v>
       </c>
       <c r="N6" t="n">
-        <v>258.3827524484474</v>
+        <v>256.9002575352613</v>
       </c>
       <c r="O6" t="n">
-        <v>16.07428855185969</v>
+        <v>16.02810835798353</v>
       </c>
       <c r="P6" t="n">
-        <v>339.7617921331816</v>
+        <v>339.8083491662347</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21303,28 +21514,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5932800848481605</v>
+        <v>0.5774485465097545</v>
       </c>
       <c r="J7" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07885985499413417</v>
+        <v>0.07547247340016439</v>
       </c>
       <c r="M7" t="n">
-        <v>11.04677811899438</v>
+        <v>11.05822188901953</v>
       </c>
       <c r="N7" t="n">
-        <v>238.7642866100246</v>
+        <v>238.9202174429398</v>
       </c>
       <c r="O7" t="n">
-        <v>15.45199943729046</v>
+        <v>15.45704426606005</v>
       </c>
       <c r="P7" t="n">
-        <v>337.5029778454227</v>
+        <v>337.661133583287</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21381,28 +21592,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.703825177416485</v>
+        <v>0.656564847326754</v>
       </c>
       <c r="J8" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K8" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06957206560115581</v>
+        <v>0.06066376903919279</v>
       </c>
       <c r="M8" t="n">
-        <v>12.88755352283492</v>
+        <v>12.99347381007219</v>
       </c>
       <c r="N8" t="n">
-        <v>370.171249950229</v>
+        <v>376.2278190267817</v>
       </c>
       <c r="O8" t="n">
-        <v>19.23983497720885</v>
+        <v>19.39659297471547</v>
       </c>
       <c r="P8" t="n">
-        <v>332.775441869426</v>
+        <v>333.2646773201062</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21459,28 +21670,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7125979023243035</v>
+        <v>0.6686070036511094</v>
       </c>
       <c r="J9" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K9" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06294771159761026</v>
+        <v>0.05606354498706112</v>
       </c>
       <c r="M9" t="n">
-        <v>12.67728524188794</v>
+        <v>12.74669718876618</v>
       </c>
       <c r="N9" t="n">
-        <v>422.2825182332566</v>
+        <v>424.2889076354073</v>
       </c>
       <c r="O9" t="n">
-        <v>20.54951381987556</v>
+        <v>20.59827438489465</v>
       </c>
       <c r="P9" t="n">
-        <v>329.9247879554779</v>
+        <v>330.3793372221294</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21537,28 +21748,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5225475121822842</v>
+        <v>0.4890966400950578</v>
       </c>
       <c r="J10" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05132660057431904</v>
+        <v>0.04524707715777798</v>
       </c>
       <c r="M10" t="n">
-        <v>12.30298606191021</v>
+        <v>12.44200478889615</v>
       </c>
       <c r="N10" t="n">
-        <v>278.9926312157478</v>
+        <v>282.3169135835972</v>
       </c>
       <c r="O10" t="n">
-        <v>16.70307250824673</v>
+        <v>16.80228893882013</v>
       </c>
       <c r="P10" t="n">
-        <v>330.7306970636567</v>
+        <v>331.0784770289553</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21596,7 +21807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K437"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42781,6 +42992,243 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>-41.045612159774734,172.1061517469496</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>-41.051037857359105,172.10656381770255</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>-41.050350056702825,172.10660877004136</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>-41.04967254262731,172.1065504290859</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-41.04899106807845,172.10653175969932</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>-41.048305074148814,172.1065583685132</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>-41.047609276253795,172.10668327871682</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>-41.04691833081504,172.10675942448754</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-41.04624063833031,172.10670252157777</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>-41.045567603593014,172.10659881518316</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:18+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>-41.05030870699378,172.10702369217987</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-41.049645808929064,172.10681868656596</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-41.04897487704508,172.10669422613734</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>-41.048272177053285,172.10688846112586</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>-41.04688340161256,172.10710989026168</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>-41.046236253754586,172.10674651484752</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>-41.045561995739135,172.1066550820416</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>-41.05102537988702,172.10668902646168</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>-41.05032219256801,172.10688837338776</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-41.04962303659055,172.10704718892703</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-41.04893099080921,172.1071345838504</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-41.048282676518056,172.1067831095576</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>-41.04758822034038,172.10689455135454</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>-41.046923809347504,172.1067044540582</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>-41.04623793123114,172.10672968366637</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>-41.04555966794264,172.1066784380934</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-41.051033198762596,172.10661056588606</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>-41.050347125809886,172.10663818049088</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-41.0482998390009,172.10661089914777</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>-41.047622995894365,172.10654561523748</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>-41.04694420665649,172.10649978940066</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>-41.04626853994951,172.10642256258348</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>-41.04560163808938,172.10625732116193</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15779,8 +15779,12 @@
       <c r="C442" t="n">
         <v>390.0953846153847</v>
       </c>
-      <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr"/>
+      <c r="D442" t="n">
+        <v>385.6</v>
+      </c>
+      <c r="E442" t="n">
+        <v>370.6553846153846</v>
+      </c>
       <c r="F442" t="n">
         <v>361.0153846153846</v>
       </c>
@@ -15797,6 +15801,72 @@
         <v>349.13</v>
       </c>
       <c r="K442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>384.9245454545455</v>
+      </c>
+      <c r="C443" t="n">
+        <v>371.9346153846154</v>
+      </c>
+      <c r="D443" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="E443" t="n">
+        <v>365.1346153846154</v>
+      </c>
+      <c r="F443" t="n">
+        <v>351.8846153846154</v>
+      </c>
+      <c r="G443" t="n">
+        <v>352.04</v>
+      </c>
+      <c r="H443" t="n">
+        <v>345.75</v>
+      </c>
+      <c r="I443" t="n">
+        <v>341.1394736842105</v>
+      </c>
+      <c r="J443" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="n">
+        <v>317.43</v>
+      </c>
+      <c r="I444" t="n">
+        <v>313.27</v>
+      </c>
+      <c r="J444" t="n">
+        <v>314.93</v>
+      </c>
+      <c r="K444" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15813,7 +15883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20951,6 +21021,26 @@
       </c>
       <c r="B513" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -21124,28 +21214,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2771666381533905</v>
+        <v>0.2821231295907431</v>
       </c>
       <c r="J2" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0138826913403951</v>
+        <v>0.01445349418960384</v>
       </c>
       <c r="M2" t="n">
-        <v>12.93681400996645</v>
+        <v>12.92474113513275</v>
       </c>
       <c r="N2" t="n">
-        <v>321.9590959583181</v>
+        <v>321.1354171354039</v>
       </c>
       <c r="O2" t="n">
-        <v>17.94321866216644</v>
+        <v>17.92025159241365</v>
       </c>
       <c r="P2" t="n">
-        <v>369.2123350165184</v>
+        <v>369.1633018534814</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21202,28 +21292,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.376723137031055</v>
+        <v>0.3774312005429307</v>
       </c>
       <c r="J3" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03428845435131045</v>
+        <v>0.03459864491976816</v>
       </c>
       <c r="M3" t="n">
-        <v>11.40669829969027</v>
+        <v>11.37400512098423</v>
       </c>
       <c r="N3" t="n">
-        <v>221.0566558495087</v>
+        <v>220.3485242513438</v>
       </c>
       <c r="O3" t="n">
-        <v>14.86797416763658</v>
+        <v>14.84414107489362</v>
       </c>
       <c r="P3" t="n">
-        <v>360.8862679466205</v>
+        <v>360.8787787240193</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21280,28 +21370,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2892726034173346</v>
+        <v>0.295947053274225</v>
       </c>
       <c r="J4" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K4" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01282507363628627</v>
+        <v>0.01354342443929224</v>
       </c>
       <c r="M4" t="n">
-        <v>12.67312945877418</v>
+        <v>12.64154337783854</v>
       </c>
       <c r="N4" t="n">
-        <v>355.4957623244165</v>
+        <v>353.7297335438321</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8545952575073</v>
+        <v>18.8077041008155</v>
       </c>
       <c r="P4" t="n">
-        <v>366.8361224482424</v>
+        <v>366.765749739511</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21358,28 +21448,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1446356112451716</v>
+        <v>0.1527177337289304</v>
       </c>
       <c r="J5" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00534524794494351</v>
+        <v>0.006010607737097828</v>
       </c>
       <c r="M5" t="n">
-        <v>11.44488033784058</v>
+        <v>11.42155053721701</v>
       </c>
       <c r="N5" t="n">
-        <v>220.3196211087098</v>
+        <v>219.3305633382618</v>
       </c>
       <c r="O5" t="n">
-        <v>14.84316748907422</v>
+        <v>14.8098130757367</v>
       </c>
       <c r="P5" t="n">
-        <v>356.7223093639187</v>
+        <v>356.6386312778426</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21436,28 +21526,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5789028829837878</v>
+        <v>0.5774121613088465</v>
       </c>
       <c r="J6" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07107713000373339</v>
+        <v>0.07106497460247652</v>
       </c>
       <c r="M6" t="n">
-        <v>12.11683781048881</v>
+        <v>12.08997957598178</v>
       </c>
       <c r="N6" t="n">
-        <v>256.9002575352613</v>
+        <v>256.1813039064112</v>
       </c>
       <c r="O6" t="n">
-        <v>16.02810835798353</v>
+        <v>16.00566474428386</v>
       </c>
       <c r="P6" t="n">
-        <v>339.8083491662347</v>
+        <v>339.8234005703302</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21514,28 +21604,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5774485465097545</v>
+        <v>0.5771261360521057</v>
       </c>
       <c r="J7" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K7" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07547247340016439</v>
+        <v>0.07575485663409554</v>
       </c>
       <c r="M7" t="n">
-        <v>11.05822188901953</v>
+        <v>11.02876973016091</v>
       </c>
       <c r="N7" t="n">
-        <v>238.9202174429398</v>
+        <v>238.2464791533349</v>
       </c>
       <c r="O7" t="n">
-        <v>15.45704426606005</v>
+        <v>15.43523498860108</v>
       </c>
       <c r="P7" t="n">
-        <v>337.661133583287</v>
+        <v>337.6643644762325</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21592,28 +21682,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.656564847326754</v>
+        <v>0.6383782843890962</v>
       </c>
       <c r="J8" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K8" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06066376903919279</v>
+        <v>0.05763455780819493</v>
       </c>
       <c r="M8" t="n">
-        <v>12.99347381007219</v>
+        <v>13.02035226491291</v>
       </c>
       <c r="N8" t="n">
-        <v>376.2278190267817</v>
+        <v>377.1719886590776</v>
       </c>
       <c r="O8" t="n">
-        <v>19.39659297471547</v>
+        <v>19.42091626723821</v>
       </c>
       <c r="P8" t="n">
-        <v>333.2646773201062</v>
+        <v>333.454170414587</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21670,28 +21760,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6686070036511094</v>
+        <v>0.648248876211304</v>
       </c>
       <c r="J9" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K9" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05606354498706112</v>
+        <v>0.05297632833654342</v>
       </c>
       <c r="M9" t="n">
-        <v>12.74669718876618</v>
+        <v>12.77672576661111</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2889076354073</v>
+        <v>425.3369116257637</v>
       </c>
       <c r="O9" t="n">
-        <v>20.59827438489465</v>
+        <v>20.62369781648683</v>
       </c>
       <c r="P9" t="n">
-        <v>330.3793372221294</v>
+        <v>330.5909868233744</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21748,28 +21838,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4890966400950578</v>
+        <v>0.4757739581879173</v>
       </c>
       <c r="J10" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K10" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04524707715777798</v>
+        <v>0.04299180286859494</v>
       </c>
       <c r="M10" t="n">
-        <v>12.44200478889615</v>
+        <v>12.47149263456789</v>
       </c>
       <c r="N10" t="n">
-        <v>282.3169135835972</v>
+        <v>283.1010657125931</v>
       </c>
       <c r="O10" t="n">
-        <v>16.80228893882013</v>
+        <v>16.8256074396318</v>
       </c>
       <c r="P10" t="n">
-        <v>331.0784770289553</v>
+        <v>331.2179602504507</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21807,7 +21897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43196,8 +43286,16 @@
           <t>-41.050347125809886,172.10663818049088</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>-41.049670814478446,172.10656777027486</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-41.048982212053,172.10662062442205</t>
+        </is>
+      </c>
       <c r="F442" t="inlineStr">
         <is>
           <t>-41.0482998390009,172.10661089914777</t>
@@ -43224,6 +43322,96 @@
         </is>
       </c>
       <c r="K442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>-41.051012066514176,172.10682262174512</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>-41.05032577555119,172.10685242025028</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-41.04965902302537,172.10668609142567</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-41.04897572169025,172.1066857507341</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>-41.04828910456644,172.10671861006324</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>-41.04761824047637,172.1065933315053</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>-41.04693979216897,172.106544084269</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>-41.04626331150301,172.10647502425763</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>-41.04559871080992,172.1062866931997</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>-41.04690649780048,172.10687815350767</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>-41.04623054685073,172.10680377562483</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>-41.04556143142527,172.10666074411492</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K444"/>
+  <dimension ref="A1:K446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15867,6 +15867,84 @@
         <v>314.93</v>
       </c>
       <c r="K444" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>371.629090909091</v>
+      </c>
+      <c r="C445" t="n">
+        <v>359.6246153846154</v>
+      </c>
+      <c r="D445" t="n">
+        <v>356.61</v>
+      </c>
+      <c r="E445" t="n">
+        <v>344.6546153846153</v>
+      </c>
+      <c r="F445" t="n">
+        <v>327.0946153846153</v>
+      </c>
+      <c r="G445" t="n">
+        <v>331.545</v>
+      </c>
+      <c r="H445" t="n">
+        <v>333.545</v>
+      </c>
+      <c r="I445" t="n">
+        <v>325.2805263157895</v>
+      </c>
+      <c r="J445" t="n">
+        <v>321.85</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>375.9054545454546</v>
+      </c>
+      <c r="C446" t="n">
+        <v>366.62</v>
+      </c>
+      <c r="D446" t="n">
+        <v>364.67</v>
+      </c>
+      <c r="E446" t="n">
+        <v>354.63</v>
+      </c>
+      <c r="F446" t="n">
+        <v>340.58</v>
+      </c>
+      <c r="G446" t="n">
+        <v>339.655</v>
+      </c>
+      <c r="H446" t="n">
+        <v>328.705</v>
+      </c>
+      <c r="I446" t="n">
+        <v>320.4389473684211</v>
+      </c>
+      <c r="J446" t="n">
+        <v>318.02</v>
+      </c>
+      <c r="K446" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15883,7 +15961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21041,6 +21119,26 @@
       </c>
       <c r="B515" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -21897,7 +21995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K444"/>
+  <dimension ref="A1:K446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43515,120 @@
         </is>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-41.05099643590092,172.10697946771182</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-41.05031130337713,172.10699763932368</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-41.04963673296637,172.1069097572203</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-41.04895164453625,172.10692734501734</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-41.04825996011249,172.1070110445773</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>-41.04759414566187,172.10683509776086</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>-41.046925443496946,172.10668805729753</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>-41.04624466710072,172.10666209817757</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>-41.04556956692317,172.10657911588254</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>-41.05100146337077,172.1069290196219</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>-41.05031952747958,172.1069151159134</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-41.04964620864597,172.10681467568168</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>-41.048963372083726,172.10680966945736</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>-41.04827581434652,172.10685196466025</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>-41.047603680191905,172.10673942935776</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>-41.04691975335498,172.1067451510507</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>-41.04623897508934,172.10671920996526</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>-41.04556506419091,172.1066242945164</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -21312,28 +21312,28 @@
         <v>0.0616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2821231295907431</v>
+        <v>0.2789306814757357</v>
       </c>
       <c r="J2" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01445349418960384</v>
+        <v>0.01430186691366575</v>
       </c>
       <c r="M2" t="n">
-        <v>12.92474113513275</v>
+        <v>12.85640598378149</v>
       </c>
       <c r="N2" t="n">
-        <v>321.1354171354039</v>
+        <v>319.1153450485035</v>
       </c>
       <c r="O2" t="n">
-        <v>17.92025159241365</v>
+        <v>17.86379984909436</v>
       </c>
       <c r="P2" t="n">
-        <v>369.1633018534814</v>
+        <v>369.1950369378907</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21390,28 +21390,28 @@
         <v>0.0742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3774312005429307</v>
+        <v>0.3688372877928334</v>
       </c>
       <c r="J3" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03459864491976816</v>
+        <v>0.03338775664937188</v>
       </c>
       <c r="M3" t="n">
-        <v>11.37400512098423</v>
+        <v>11.34802294714578</v>
       </c>
       <c r="N3" t="n">
-        <v>220.3485242513438</v>
+        <v>219.379558006477</v>
       </c>
       <c r="O3" t="n">
-        <v>14.84414107489362</v>
+        <v>14.81146711188588</v>
       </c>
       <c r="P3" t="n">
-        <v>360.8787787240193</v>
+        <v>360.9701384559024</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21468,28 +21468,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.295947053274225</v>
+        <v>0.2811823605361684</v>
       </c>
       <c r="J4" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01354342443929224</v>
+        <v>0.0123288135928411</v>
       </c>
       <c r="M4" t="n">
-        <v>12.64154337783854</v>
+        <v>12.63129972457562</v>
       </c>
       <c r="N4" t="n">
-        <v>353.7297335438321</v>
+        <v>352.8367040758158</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8077041008155</v>
+        <v>18.7839480428321</v>
       </c>
       <c r="P4" t="n">
-        <v>366.765749739511</v>
+        <v>366.9222406607777</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21546,28 +21546,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1527177337289304</v>
+        <v>0.1408250817406594</v>
       </c>
       <c r="J5" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006010607737097828</v>
+        <v>0.005150683817834345</v>
       </c>
       <c r="M5" t="n">
-        <v>11.42155053721701</v>
+        <v>11.41507235656462</v>
       </c>
       <c r="N5" t="n">
-        <v>219.3305633382618</v>
+        <v>218.8609699509819</v>
       </c>
       <c r="O5" t="n">
-        <v>14.8098130757367</v>
+        <v>14.79395045114664</v>
       </c>
       <c r="P5" t="n">
-        <v>356.6386312778426</v>
+        <v>356.7624061842909</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21624,28 +21624,28 @@
         <v>0.0708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5774121613088465</v>
+        <v>0.5565324087000383</v>
       </c>
       <c r="J6" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K6" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07106497460247652</v>
+        <v>0.06631129815605019</v>
       </c>
       <c r="M6" t="n">
-        <v>12.08997957598178</v>
+        <v>12.13431794188547</v>
       </c>
       <c r="N6" t="n">
-        <v>256.1813039064112</v>
+        <v>257.4843721921856</v>
       </c>
       <c r="O6" t="n">
-        <v>16.00566474428386</v>
+        <v>16.04631958401009</v>
       </c>
       <c r="P6" t="n">
-        <v>339.8234005703302</v>
+        <v>340.0353466491545</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21702,28 +21702,28 @@
         <v>0.0911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5771261360521057</v>
+        <v>0.5601908384824619</v>
       </c>
       <c r="J7" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K7" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07575485663409554</v>
+        <v>0.07189704645719674</v>
       </c>
       <c r="M7" t="n">
-        <v>11.02876973016091</v>
+        <v>11.05967708287476</v>
       </c>
       <c r="N7" t="n">
-        <v>238.2464791533349</v>
+        <v>238.6243771033415</v>
       </c>
       <c r="O7" t="n">
-        <v>15.43523498860108</v>
+        <v>15.4474715440211</v>
       </c>
       <c r="P7" t="n">
-        <v>337.6643644762325</v>
+        <v>337.8349597084392</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21780,28 +21780,28 @@
         <v>0.0925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6383782843890962</v>
+        <v>0.6201758583033539</v>
       </c>
       <c r="J8" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05763455780819493</v>
+        <v>0.05480021773467203</v>
       </c>
       <c r="M8" t="n">
-        <v>13.02035226491291</v>
+        <v>13.04902575906002</v>
       </c>
       <c r="N8" t="n">
-        <v>377.1719886590776</v>
+        <v>377.0873882036279</v>
       </c>
       <c r="O8" t="n">
-        <v>19.42091626723821</v>
+        <v>19.41873806928833</v>
       </c>
       <c r="P8" t="n">
-        <v>333.454170414587</v>
+        <v>333.6442627801327</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21858,28 +21858,28 @@
         <v>0.108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.648248876211304</v>
+        <v>0.6241367064738184</v>
       </c>
       <c r="J9" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K9" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05297632833654342</v>
+        <v>0.04939403818479815</v>
       </c>
       <c r="M9" t="n">
-        <v>12.77672576661111</v>
+        <v>12.82835459222459</v>
       </c>
       <c r="N9" t="n">
-        <v>425.3369116257637</v>
+        <v>426.3317428215446</v>
       </c>
       <c r="O9" t="n">
-        <v>20.62369781648683</v>
+        <v>20.64780237268714</v>
       </c>
       <c r="P9" t="n">
-        <v>330.5909868233744</v>
+        <v>330.8422645066662</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21936,28 +21936,28 @@
         <v>0.1175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4757739581879173</v>
+        <v>0.451862879380414</v>
       </c>
       <c r="J10" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K10" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04299180286859494</v>
+        <v>0.0389045102666089</v>
       </c>
       <c r="M10" t="n">
-        <v>12.47149263456789</v>
+        <v>12.55217993288632</v>
       </c>
       <c r="N10" t="n">
-        <v>283.1010657125931</v>
+        <v>284.6619418412127</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8256074396318</v>
+        <v>16.87192762671808</v>
       </c>
       <c r="P10" t="n">
-        <v>331.2179602504507</v>
+        <v>331.4686550839724</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -21303,13 +21303,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0491</v>
+        <v>0.0482</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0616</v>
+        <v>0.0837</v>
       </c>
       <c r="I2" t="n">
         <v>0.2789269539901321</v>
@@ -21381,13 +21381,13 @@
         <v>0.8749999999999359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.061</v>
+        <v>0.0658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0742</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.3688640627693398</v>
@@ -21459,13 +21459,13 @@
         <v>0.7500000000010248</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0488</v>
+        <v>0.0527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0556</v>
+        <v>0.1176</v>
       </c>
       <c r="I4" t="n">
         <v>0.2811823605361685</v>
@@ -21540,10 +21540,10 @@
         <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0588</v>
+        <v>0.0489</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0949</v>
       </c>
       <c r="I5" t="n">
         <v>0.1408455145545885</v>
@@ -21615,13 +21615,13 @@
         <v>0.5000000000008966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0575</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0708</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.5565408065212789</v>
@@ -21693,13 +21693,13 @@
         <v>0.3750000000008324</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.0858</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0911</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.5601831276419962</v>
@@ -21771,13 +21771,13 @@
         <v>0.2500000000001283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.1231</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0925</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.6201474590015785</v>
@@ -21849,13 +21849,13 @@
         <v>0.1250000000000641</v>
       </c>
       <c r="F9" t="n">
-        <v>0.095</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.081</v>
+        <v>0.1361</v>
       </c>
       <c r="H9" t="n">
-        <v>0.108</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.6241111655362226</v>
@@ -21927,13 +21927,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.1188</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1175</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.4518628793804143</v>

--- a/data/nzd0336/nzd0336.xlsx
+++ b/data/nzd0336/nzd0336.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K449"/>
+  <dimension ref="A1:K450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16036,6 +16036,45 @@
         <v>330.65</v>
       </c>
       <c r="K449" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>381.32</v>
+      </c>
+      <c r="C450" t="n">
+        <v>370.18</v>
+      </c>
+      <c r="D450" t="n">
+        <v>367.87</v>
+      </c>
+      <c r="E450" t="n">
+        <v>353.94</v>
+      </c>
+      <c r="F450" t="n">
+        <v>345.35</v>
+      </c>
+      <c r="G450" t="n">
+        <v>343.28</v>
+      </c>
+      <c r="H450" t="n">
+        <v>339.05</v>
+      </c>
+      <c r="I450" t="n">
+        <v>342.9</v>
+      </c>
+      <c r="J450" t="n">
+        <v>337.23</v>
+      </c>
+      <c r="K450" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16052,7 +16091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21260,6 +21299,16 @@
       </c>
       <c r="B520" t="n">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.98</v>
       </c>
     </row>
   </sheetData>
@@ -21427,34 +21476,34 @@
         <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0487</v>
+        <v>0.049</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0853</v>
+        <v>0.0861</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2859040440128417</v>
+        <v>0.2886406812278472</v>
       </c>
       <c r="J2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01511108645525583</v>
+        <v>0.01548387830882114</v>
       </c>
       <c r="M2" t="n">
-        <v>13.00577652728931</v>
+        <v>12.98029400816476</v>
       </c>
       <c r="N2" t="n">
-        <v>319.5542900352655</v>
+        <v>318.6057578988444</v>
       </c>
       <c r="O2" t="n">
-        <v>17.87608150673031</v>
+        <v>17.84953102742043</v>
       </c>
       <c r="P2" t="n">
-        <v>368.9239654271877</v>
+        <v>368.8964724895377</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21505,34 +21554,34 @@
         <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0665</v>
+        <v>0.0673</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3784829399066148</v>
+        <v>0.3788690656828982</v>
       </c>
       <c r="J3" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03555211438018335</v>
+        <v>0.03581133543743309</v>
       </c>
       <c r="M3" t="n">
-        <v>11.49604250942714</v>
+        <v>11.46190320743341</v>
       </c>
       <c r="N3" t="n">
-        <v>220.2895079206278</v>
+        <v>219.5917118018588</v>
       </c>
       <c r="O3" t="n">
-        <v>14.84215307563656</v>
+        <v>14.81862719019069</v>
       </c>
       <c r="P3" t="n">
-        <v>359.5336610058144</v>
+        <v>359.5295500088395</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21583,34 +21632,34 @@
         <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0531</v>
+        <v>0.0536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1179</v>
+        <v>0.1199</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2520557897402499</v>
+        <v>0.2496073467359887</v>
       </c>
       <c r="J4" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01088793930470922</v>
+        <v>0.01073316505372823</v>
       </c>
       <c r="M4" t="n">
-        <v>11.95766202554107</v>
+        <v>11.93258788708253</v>
       </c>
       <c r="N4" t="n">
-        <v>327.7811888911992</v>
+        <v>326.8705071768182</v>
       </c>
       <c r="O4" t="n">
-        <v>18.10472835728831</v>
+        <v>18.07956048074228</v>
       </c>
       <c r="P4" t="n">
-        <v>365.9325744136214</v>
+        <v>365.9585169087843</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21661,34 +21710,34 @@
         <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0492</v>
+        <v>0.0495</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0951</v>
+        <v>0.0964</v>
       </c>
       <c r="I5" t="n">
-        <v>0.158328452509628</v>
+        <v>0.1547110263214301</v>
       </c>
       <c r="J5" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006558915454237035</v>
+        <v>0.006293960120509312</v>
       </c>
       <c r="M5" t="n">
-        <v>11.41313593150669</v>
+        <v>11.39826111336663</v>
       </c>
       <c r="N5" t="n">
-        <v>218.4768516132928</v>
+        <v>217.9489571774188</v>
       </c>
       <c r="O5" t="n">
-        <v>14.78096247249457</v>
+        <v>14.76309443095921</v>
       </c>
       <c r="P5" t="n">
-        <v>356.5788581373861</v>
+        <v>356.6168493028715</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21739,34 +21788,34 @@
         <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0776</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5533451099660442</v>
+        <v>0.5499356219352698</v>
       </c>
       <c r="J6" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08056038143567312</v>
+        <v>0.0799741729595036</v>
       </c>
       <c r="M6" t="n">
-        <v>11.15639085088538</v>
+        <v>11.14476065055076</v>
       </c>
       <c r="N6" t="n">
-        <v>208.8785062787522</v>
+        <v>208.4116121009822</v>
       </c>
       <c r="O6" t="n">
-        <v>14.45262973575232</v>
+        <v>14.43646813112481</v>
       </c>
       <c r="P6" t="n">
-        <v>337.713611034752</v>
+        <v>337.7483793354522</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21817,34 +21866,34 @@
         <v>0.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0858</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4472767625593447</v>
+        <v>0.4441967546097093</v>
       </c>
       <c r="J7" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K7" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05598704419211709</v>
+        <v>0.05550239627576437</v>
       </c>
       <c r="M7" t="n">
-        <v>10.34611449706818</v>
+        <v>10.3328661478103</v>
       </c>
       <c r="N7" t="n">
-        <v>201.3554186752678</v>
+        <v>200.901138265053</v>
       </c>
       <c r="O7" t="n">
-        <v>14.18997599276573</v>
+        <v>14.17395986536765</v>
       </c>
       <c r="P7" t="n">
-        <v>337.8082123443738</v>
+        <v>337.839317262216</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21895,34 +21944,34 @@
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1228</v>
+        <v>0.1235</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6345372944861324</v>
+        <v>0.6301065127114174</v>
       </c>
       <c r="J8" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K8" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05610521187411766</v>
+        <v>0.05558559553937537</v>
       </c>
       <c r="M8" t="n">
-        <v>13.11189254105729</v>
+        <v>13.09875328058264</v>
       </c>
       <c r="N8" t="n">
-        <v>386.8570525412142</v>
+        <v>386.0437065664247</v>
       </c>
       <c r="O8" t="n">
-        <v>19.66868202349141</v>
+        <v>19.64799497573289</v>
       </c>
       <c r="P8" t="n">
-        <v>331.7201515882958</v>
+        <v>331.7669257156044</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21973,34 +22022,34 @@
         <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1356</v>
+        <v>0.1355</v>
       </c>
       <c r="H9" t="n">
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6980188183922403</v>
+        <v>0.69571470243835</v>
       </c>
       <c r="J9" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K9" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05607741616386719</v>
+        <v>0.05598004530325995</v>
       </c>
       <c r="M9" t="n">
-        <v>13.98758909394409</v>
+        <v>13.96070212528775</v>
       </c>
       <c r="N9" t="n">
-        <v>477.0404585478353</v>
+        <v>475.7928574645185</v>
       </c>
       <c r="O9" t="n">
-        <v>21.8412558830264</v>
+        <v>21.81267653142361</v>
       </c>
       <c r="P9" t="n">
-        <v>329.3588937155641</v>
+        <v>329.3828098751302</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22051,34 +22100,34 @@
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1187</v>
+        <v>0.1195</v>
       </c>
       <c r="H10" t="n">
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3536469539648533</v>
+        <v>0.3514310531046826</v>
       </c>
       <c r="J10" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K10" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02299409292816179</v>
+        <v>0.02282205830170714</v>
       </c>
       <c r="M10" t="n">
-        <v>12.93550509012518</v>
+        <v>12.91376287635</v>
       </c>
       <c r="N10" t="n">
-        <v>306.7245808304308</v>
+        <v>305.9115786127905</v>
       </c>
       <c r="O10" t="n">
-        <v>17.51355420325728</v>
+        <v>17.49032814480022</v>
       </c>
       <c r="P10" t="n">
-        <v>332.3949467081591</v>
+        <v>332.4180713168726</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22116,7 +22165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K449"/>
+  <dimension ref="A1:K450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43918,63 @@
         </is>
       </c>
     </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>-41.05100782890242,172.1068651444364</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>-41.05032371275987,172.10687311916706</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>-41.04964997068054,172.10677692618023</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-41.04896256089005,172.10681780910835</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>-41.04828142219432,172.10679569548736</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>-41.04760794190119,172.10669666757846</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>-41.0469319154111,172.10662311904005</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-41.04626538122819,172.1064542568858</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>-41.0455876482121,172.1063976935289</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
